--- a/dictionaries/health_facility/moz_type_dictionary.xlsx
+++ b/dictionaries/health_facility/moz_type_dictionary.xlsx
@@ -5,21 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GRID3_public\dictionaries\health_facility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\GRID3\dictionaries\health_facility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24435" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="moz_type_dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -30,36 +38,21 @@
     <t>abbreviation</t>
   </si>
   <si>
-    <t>Posto De Saude</t>
-  </si>
-  <si>
     <t>MOZ</t>
   </si>
   <si>
     <t>PS</t>
   </si>
   <si>
-    <t>Centro De Saude Rural 1</t>
-  </si>
-  <si>
     <t>CSR 1</t>
   </si>
   <si>
-    <t>Centro De Saude Urbano C</t>
-  </si>
-  <si>
     <t>CSU C</t>
   </si>
   <si>
-    <t>Centro De Saude Urbano B</t>
-  </si>
-  <si>
     <t>CSU B</t>
   </si>
   <si>
-    <t>Centro De Saude Urbano A</t>
-  </si>
-  <si>
     <t>CSU A</t>
   </si>
   <si>
@@ -75,9 +68,6 @@
     <t>HD</t>
   </si>
   <si>
-    <t>Centro De Saude Rural 2</t>
-  </si>
-  <si>
     <t>CSR 2</t>
   </si>
   <si>
@@ -99,34 +89,52 @@
     <t>HC</t>
   </si>
   <si>
-    <t xml:space="preserve">Centro De Saude </t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Clinica</t>
-  </si>
-  <si>
     <t>Instituto</t>
   </si>
   <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Clínica</t>
+  </si>
+  <si>
+    <t>Posto de Saude</t>
+  </si>
+  <si>
+    <t>Centro de Saude Rural 1</t>
+  </si>
+  <si>
+    <t>Centro de Saude Urbano C</t>
+  </si>
+  <si>
+    <t>Centro de Saude Urbano B</t>
+  </si>
+  <si>
+    <t>Centro de Saude Urbano A</t>
+  </si>
+  <si>
+    <t>Centro de Saude Rural 2</t>
+  </si>
+  <si>
     <t>Posto Medico</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Consultorio Medico</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>CM</t>
+    <t>Consultório Medico</t>
+  </si>
+  <si>
+    <t>Centro de Saude</t>
   </si>
 </sst>
 </file>
@@ -933,15 +941,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,211 +965,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
